--- a/docs/mcode-r4/shr-core-Duration.xlsx
+++ b/docs/mcode-r4/shr-core-Duration.xlsx
@@ -226,7 +226,7 @@
     <t>number</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Number-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Number-extension}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
     <t>units</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Units-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Units-extension}
 </t>
   </si>
   <si>
@@ -265,7 +265,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Units-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/shr-core-Units-extension</t>
   </si>
   <si>
     <t>Extension.url</t>
